--- a/OnBoard/output/trust/bio/Bio_Trust_68.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_68.xlsx
@@ -11303,7 +11303,7 @@
         <v>50</v>
       </c>
       <c r="I231">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J231" t="inlineStr">
         <is>
@@ -11312,11 +11312,6 @@
       </c>
       <c r="L231">
         <v>0</v>
-      </c>
-      <c r="P231" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="232">
@@ -12765,7 +12760,7 @@
         <v>52</v>
       </c>
       <c r="I262">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -12774,11 +12769,6 @@
       </c>
       <c r="L262">
         <v>0</v>
-      </c>
-      <c r="P262" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="263">
@@ -12817,7 +12807,7 @@
         <v>48</v>
       </c>
       <c r="I263">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J263" t="inlineStr">
         <is>
@@ -12826,11 +12816,6 @@
       </c>
       <c r="L263">
         <v>0</v>
-      </c>
-      <c r="P263" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="264">
@@ -15266,7 +15251,7 @@
         <v>32</v>
       </c>
       <c r="I315">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
@@ -15275,11 +15260,6 @@
       </c>
       <c r="L315">
         <v>0</v>
-      </c>
-      <c r="P315" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="316">
